--- a/requirement/Glossary concepts.xlsx
+++ b/requirement/Glossary concepts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arhayem\Desktop\auroral-core-ontology-master\auroral-tourism-ontology\requirement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17ACE352-1123-4A4E-B0B0-432FBC630996}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A3E2B2-04A2-442F-83D7-F2AAB56942A8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8775" xr2:uid="{BF4558F6-238C-4A84-A6EF-50BFC71576B1}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8775" xr2:uid="{BF4558F6-238C-4A84-A6EF-50BFC71576B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
   <si>
     <t xml:space="preserve">Requirements </t>
   </si>
@@ -33,9 +33,6 @@
     <t>Req1</t>
   </si>
   <si>
-    <t>Identifier, hidden description, long description, short description, isBookable, externalBookingURL</t>
-  </si>
-  <si>
     <t xml:space="preserve">Req2 </t>
   </si>
   <si>
@@ -48,27 +45,9 @@
     <t>Req4</t>
   </si>
   <si>
-    <t>Activity, Channel (hasChannel)</t>
-  </si>
-  <si>
-    <t>Activity, Difficulty, (hasActivity)</t>
-  </si>
-  <si>
     <t>Req5</t>
   </si>
   <si>
-    <t>Channel,attributes (idChannel, channelName)</t>
-  </si>
-  <si>
-    <t>Activity, Price (hasPrice)</t>
-  </si>
-  <si>
-    <t>Price, attributes (amount)</t>
-  </si>
-  <si>
-    <t>Activity, Event (hasEvent)</t>
-  </si>
-  <si>
     <t>Req6</t>
   </si>
   <si>
@@ -84,26 +63,92 @@
     <t>Req10</t>
   </si>
   <si>
-    <t>Event, attributes (start, end)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Terms </t>
   </si>
   <si>
-    <t>Activity , Tour (has-tour)</t>
-  </si>
-  <si>
     <t>Req11</t>
   </si>
   <si>
     <t>Activity, language  (has-language)</t>
+  </si>
+  <si>
+    <t>Properties</t>
+  </si>
+  <si>
+    <t>Attributes</t>
+  </si>
+  <si>
+    <t>Activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Identifier, hidden description, long description, short description, isBookable, externalBookingURL</t>
+  </si>
+  <si>
+    <t>hasDifficulty (Difficulty)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Channel (hasChannel)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Channel </t>
+  </si>
+  <si>
+    <t>(idChannel, channelName)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Price (hasPrice)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Price </t>
+  </si>
+  <si>
+    <t>(amount)</t>
+  </si>
+  <si>
+    <t>Event (hasEvent)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Event  </t>
+  </si>
+  <si>
+    <t>(start, end)</t>
+  </si>
+  <si>
+    <t>Tour (has-tour)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Req 12 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tour </t>
+  </si>
+  <si>
+    <t>Req13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activity </t>
+  </si>
+  <si>
+    <t>Req14</t>
+  </si>
+  <si>
+    <t>hasGeoPolygon (Polygon)</t>
+  </si>
+  <si>
+    <t>geo:location (Point)</t>
+  </si>
+  <si>
+    <t>Req15</t>
+  </si>
+  <si>
+    <t>inCurrency (Currency)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,16 +156,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -128,14 +185,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -448,112 +526,191 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2849E9C3-984F-4484-B3E3-694C2F29A965}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33" customWidth="1"/>
-    <col min="2" max="2" width="45.140625" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" customWidth="1"/>
+    <col min="4" max="4" width="39.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
         <v>17</v>
       </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
